--- a/Generate/Сводка2.xlsx
+++ b/Generate/Сводка2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,49 +396,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>код</t>
+          <t>10908</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Артикул</t>
+          <t>NDL7/47</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">№ парт. </t>
+          <t>220C0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>№ конв.</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10908</t>
+          <t>10781</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NDL7/47</t>
+          <t>NDL5/5</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>220C0</t>
+          <t>221C0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -450,22 +450,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10781</t>
+          <t>38325</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NDL5/5</t>
+          <t>NDL5/11</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>221C0</t>
+          <t>222C0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -477,22 +477,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>38325</t>
+          <t>10899</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NDL5/11</t>
+          <t>NDL10/116</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>222C0</t>
+          <t>223C0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -504,22 +504,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>10899</t>
+          <t>10808</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NDL10/116</t>
+          <t>NDL6/77</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>223C0</t>
+          <t>224C0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -531,61 +531,61 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10808</t>
+          <t>27650</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NDL6/77</t>
+          <t>PE10/76</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>224C0</t>
+          <t>225C0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>27650</t>
+          <t>24501</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PE10/76</t>
+          <t>Н/З PB10/16</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>225C0</t>
+          <t>226C0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>226C0</t>
+          <t>227C0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -612,22 +612,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>24501</t>
+          <t>24505</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Н/З PB10/16</t>
+          <t>Н/З PB10/76</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>227C0</t>
+          <t>228C0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -639,76 +639,76 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>24505</t>
+          <t>41744</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Н/З PB10/76</t>
+          <t>НС/HB/S</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>228C0</t>
+          <t>229C0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>41744</t>
+          <t>28545</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>НС/HB/S</t>
+          <t>HC/B/SP</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>229C0</t>
+          <t>172C0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>28545</t>
+          <t>35318</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>HC/B/SP</t>
+          <t>HC/LV/O</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>172C0</t>
+          <t>174C0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -720,76 +720,76 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>35318</t>
+          <t>7822</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>HC/LV/O</t>
+          <t>Н/З OX LOOKS</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>174C0</t>
+          <t>15C0</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>7822</t>
+          <t>10734</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Н/З OX LOOKS</t>
+          <t>NLC/66</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>15C0</t>
+          <t>230C0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>10734</t>
+          <t>10755</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NLC/66</t>
+          <t>NLF/56</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>230C0</t>
+          <t>231C0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -801,22 +801,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>10755</t>
+          <t>10753</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NLF/56</t>
+          <t>NLF/44</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>231C0</t>
+          <t>232C0</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -828,49 +828,49 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>10753</t>
+          <t>9118</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NLF/44</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>232C0</t>
+          <t>182C0</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>9118</t>
+          <t>10735</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>NLC/G</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>182C0</t>
+          <t>233C0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -882,103 +882,103 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>10735</t>
+          <t>31578</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NLC/G</t>
+          <t>Н/З туба BX/3</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>233C0</t>
+          <t>183C0</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>31578</t>
+          <t>35783</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Н/З туба BX/3</t>
+          <t>Н/З FHC/L1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>183C0</t>
+          <t>234C0</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>35783</t>
+          <t>28109</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Н/З FHC/L1</t>
+          <t>Н/КОР PE1/0</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>234C0</t>
+          <t>289C0</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>28109</t>
+          <t>36699</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Н/КОР PE1/0</t>
+          <t>Н/КОР PC6/0</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>289C0</t>
+          <t>291C0</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -990,22 +990,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>36699</t>
+          <t>36714</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Н/КОР PC6/0</t>
+          <t>Н/КОР PC7/0</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>291C0</t>
+          <t>292C0</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1017,22 +1017,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>36714</t>
+          <t>36756</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Н/КОР PC7/0</t>
+          <t>Н/КОР PC8/75</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>292C0</t>
+          <t>290C0</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1044,22 +1044,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>36756</t>
+          <t>24158</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Н/КОР PC8/75</t>
+          <t>Н/КОР DLS 10/36</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>290C0</t>
+          <t>275C0</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1071,22 +1071,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>24158</t>
+          <t>15499</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Н/КОР DLS 10/36</t>
+          <t>Н/КОР DLS 5/45</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>275C0</t>
+          <t>273C0</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1098,22 +1098,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>15499</t>
+          <t>15505</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Н/КОР DLS 5/45</t>
+          <t>Н/КОР DLS 5/76</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>273C0</t>
+          <t>272C0</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1125,22 +1125,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>15505</t>
+          <t>15507</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Н/КОР DLS 5/76</t>
+          <t>Н/КОР DLS 6/37</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>272C0</t>
+          <t>285C0</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1152,22 +1152,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>15507</t>
+          <t>15515</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Н/КОР DLS 6/37</t>
+          <t>Н/КОР DLS 7/0</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>285C0</t>
+          <t>274C0</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1179,22 +1179,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>15515</t>
+          <t>15517</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Н/КОР DLS 7/0</t>
+          <t>Н/КОР DLS 7/4</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>274C0</t>
+          <t>288C0</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1206,22 +1206,22 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>15517</t>
+          <t>24179</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Н/КОР DLS 7/4</t>
+          <t>Н/КОР DLS 7/43</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>288C0</t>
+          <t>271C0</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1233,22 +1233,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>24179</t>
+          <t>15529</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Н/КОР DLS 7/43</t>
+          <t>Н/КОР DLS 8/76</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>271C0</t>
+          <t>287C0</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1260,22 +1260,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>15529</t>
+          <t>15532</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Н/КОР DLS 8/76</t>
+          <t>Н/КОР DLS 9/34</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>287C0</t>
+          <t>284C0</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1287,22 +1287,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>15532</t>
+          <t>24223</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Н/КОР DLS 9/34</t>
+          <t>Н/КОР DLS 9/75</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>284C0</t>
+          <t>286C0</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1314,22 +1314,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>24223</t>
+          <t>38233</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Н/КОР DLS 9/75</t>
+          <t>Н/КОР NTB10/76</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>286C0</t>
+          <t>282C0</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1341,49 +1341,49 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>38233</t>
+          <t>44629</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Н/КОР NTB10/76</t>
+          <t>VED/Set</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>282C0</t>
+          <t>1030B0</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>44629</t>
+          <t>25041</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>VED/Set</t>
+          <t>AH7/0</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1030B0</t>
+          <t>69C0</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1395,7 +1395,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>69C0</t>
+          <t>70C0</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1422,49 +1422,49 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>25041</t>
+          <t>10827</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>AH7/0</t>
+          <t>NDL8/1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>70C0</t>
+          <t>235C0</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>10827</t>
+          <t>10823</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NDL8/1</t>
+          <t>NDL7/76</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>235C0</t>
+          <t>236C0</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1476,22 +1476,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>10823</t>
+          <t>10804</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>NDL7/76</t>
+          <t>NDL6/7</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>236C0</t>
+          <t>237C0</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1503,49 +1503,49 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>10804</t>
+          <t>27633</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>NDL6/7</t>
+          <t>P/S161</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>237C0</t>
+          <t>238C0</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>27633</t>
+          <t>27715</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>P/S161</t>
+          <t>PE9/16</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>238C0</t>
+          <t>239C0</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1557,49 +1557,49 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>27715</t>
+          <t>37021</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>PE9/16</t>
+          <t>PС6/00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>239C0</t>
+          <t>240C0</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>37021</t>
+          <t>37064</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>PС6/00</t>
+          <t>PС8/76</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>240C0</t>
+          <t>241C0</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1611,22 +1611,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>37064</t>
+          <t>37006</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>PС8/76</t>
+          <t>PС4/7</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>241C0</t>
+          <t>242C0</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1638,22 +1638,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>37006</t>
+          <t>37001</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>PС4/7</t>
+          <t>PС3/0</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>242C0</t>
+          <t>243C0</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1665,22 +1665,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>37001</t>
+          <t>37009</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>PС3/0</t>
+          <t>PС5/00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>243C0</t>
+          <t>244C0</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1692,22 +1692,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>37009</t>
+          <t>37037</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>PС5/00</t>
+          <t>PС7/1</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>244C0</t>
+          <t>245C0</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1719,562 +1719,562 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>37037</t>
+          <t>5653</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>PС7/1</t>
+          <t>EN/4</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>245C0</t>
+          <t>185C0</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>42</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5653</t>
+          <t>44616</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>EN/4</t>
+          <t>KIKI/B1</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>185C0</t>
+          <t>140C0</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>101</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>код</t>
+          <t>44626</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Артикул</t>
+          <t>VED/B1</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">№ парт. </t>
+          <t>201C0</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>№ конв.</t>
+          <t>102</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>44616</t>
+          <t>35931</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>KIKI/B1</t>
+          <t>AH/SH1000</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>140C0</t>
+          <t>248C0</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>103</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>44626</t>
+          <t>35931</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>VED/B1</t>
+          <t>AH/SH1000</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>201C0</t>
+          <t>249C0</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>103</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>35931</t>
+          <t>35317</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>AH/SH1000</t>
+          <t>HC/LV/C</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>248C0</t>
+          <t>202C0</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>105</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>35931</t>
+          <t>10284</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>AH/SH1000</t>
+          <t xml:space="preserve">DL/P30 </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>249C0</t>
+          <t>856L9</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>106.2</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>35317</t>
+          <t>10284</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>HC/LV/C</t>
+          <t xml:space="preserve">DL/P30 </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>202C0</t>
+          <t>625A0</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>106.2</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>10284</t>
+          <t>28544</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve">DL/P30 </t>
+          <t>HC/B/M3</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>856L9</t>
+          <t>250C0</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>106.2</t>
+          <t>107</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>10284</t>
+          <t>28567</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve">DL/P30 </t>
+          <t>HC/H/M</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>625A0</t>
+          <t>251C0</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>106.2</t>
+          <t>107</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>28544</t>
+          <t>38180</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>HC/B/M3</t>
+          <t>С/П HC/LV/S10</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>250C0</t>
+          <t>203C0</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>108.1</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>28567</t>
+          <t>38853</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>HC/H/M</t>
+          <t>С/П R/S10</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>251C0</t>
+          <t>252C0</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>108.2</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>38180</t>
+          <t>30952</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>С/П HC/LV/S10</t>
+          <t>С/П LOVE 6</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>203C0</t>
+          <t>145C0</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>108.1</t>
+          <t>108.3</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>38853</t>
+          <t>38177</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>С/П R/S10</t>
+          <t>С/П HC/H/S10</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>252C0</t>
+          <t>305C0</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>108.2</t>
+          <t>108.3</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>30952</t>
+          <t>38175</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>С/П LOVE 6</t>
+          <t>С/П HC/C/B10</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>145C0</t>
+          <t>253C0</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>108.3</t>
+          <t>108.4</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>38177</t>
+          <t>28267</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>С/П HC/H/S10</t>
+          <t>P/03/60</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>305C0</t>
+          <t>146C0</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>108.3</t>
+          <t>112</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>38175</t>
+          <t>28268</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>С/П HC/C/B10</t>
+          <t>P/06/60</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>253C0</t>
+          <t>254C0</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>108.4</t>
+          <t>112</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>28267</t>
+          <t>40077</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>P/03/60</t>
+          <t>Н/ФЛ APU100</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>146C0</t>
+          <t>309C0</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>113</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>28268</t>
+          <t>28566</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>P/06/60</t>
+          <t>HC/H/B</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>254C0</t>
+          <t>206C0</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>115</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>40077</t>
+          <t>35319</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Н/ФЛ APU100</t>
+          <t>HC/LV/HM</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>309C0</t>
+          <t>258C0</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>115</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>28566</t>
+          <t>28556</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>HC/H/B</t>
+          <t>HC/С/S</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>206C0</t>
+          <t>259C0</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2286,76 +2286,76 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>35319</t>
+          <t>28539</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>HC/LV/HM</t>
+          <t>HC/B/S1</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>258C0</t>
+          <t>205C0</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>116</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>28556</t>
+          <t>28541</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>HC/С/S</t>
+          <t>HC/B/B</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>259C0</t>
+          <t>257C0</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>116</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>28539</t>
+          <t>35315</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>HC/B/S1</t>
+          <t>HC/LV/S</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>205C0</t>
+          <t>256C0</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2367,106 +2367,52 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>28541</t>
+          <t>37682</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>HC/B/B</t>
+          <t>HC333/BC</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>257C0</t>
+          <t>207C0</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>121</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2020-03-07 00:00:00</t>
+          <t>2020-03-08 00:00:00</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>35315</t>
+          <t>26121</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>HC/LV/S</t>
+          <t>HCM/8</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>256C0</t>
+          <t>811B0</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>2020-03-07 00:00:00</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>37682</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>HC333/BC</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>207C0</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>2020-03-07 00:00:00</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>26121</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>HCM/8</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>811B0</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
         <is>
           <t>124</t>
         </is>

--- a/Generate/Сводка2.xlsx
+++ b/Generate/Сводка2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,2025 +396,2079 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10908</t>
+          <t>44616</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NDL7/47</t>
+          <t>KIKI/B1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>220C0</t>
+          <t>294C0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>101</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10781</t>
+          <t>44626</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NDL5/5</t>
+          <t>VED/B1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>221C0</t>
+          <t>199C0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>102</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>38325</t>
+          <t>44610</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NDL5/11</t>
+          <t>BBY/B1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>222C0</t>
+          <t>246C0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>102</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>10899</t>
+          <t>44610</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NDL10/116</t>
+          <t>BBY/B1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>223C0</t>
+          <t>247C0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>102</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>10808</t>
+          <t>44610</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NDL6/77</t>
+          <t>BBY/B1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>224C0</t>
+          <t>295C0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>102</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>27650</t>
+          <t>35931</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PE10/76</t>
+          <t>AH/SH1000</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>225C0</t>
+          <t>299C0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>103</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>24501</t>
+          <t>44622</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Н/З PB10/16</t>
+          <t>VED/S1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>226C0</t>
+          <t>300C0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>103</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>24501</t>
+          <t>44622</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Н/З PB10/16</t>
+          <t>VED/S1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>227C0</t>
+          <t>301C0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>103</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>24505</t>
+          <t>44622</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Н/З PB10/76</t>
+          <t>VED/S1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>228C0</t>
+          <t>302C0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>103</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>41744</t>
+          <t>40848</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>НС/HB/S</t>
+          <t>HC/LV/SB</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>229C0</t>
+          <t>203C0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>105</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>28545</t>
+          <t>10284</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>HC/B/SP</t>
+          <t xml:space="preserve">DL/P30 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>172C0</t>
+          <t>625A0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>106.2</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>35318</t>
+          <t>10284</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>HC/LV/O</t>
+          <t xml:space="preserve">DL/P30 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>174C0</t>
+          <t>626A0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>106.2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>7822</t>
+          <t>28567</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Н/З OX LOOKS</t>
+          <t>HC/H/M</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>15C0</t>
+          <t>251C0</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>107</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>10734</t>
+          <t>38180</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NLC/66</t>
+          <t>С/П HC/LV/S10</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>230C0</t>
+          <t>203C0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>108.1</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>10755</t>
+          <t>38853</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NLF/56</t>
+          <t>С/П R/S10</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>231C0</t>
+          <t>252C0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>108.2</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>10753</t>
+          <t>38182</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NLF/44</t>
+          <t>С/П HC/R/MD3</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>232C0</t>
+          <t>304C0</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>108.2</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>9118</t>
+          <t>38177</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>С/П HC/H/S10</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>182C0</t>
+          <t>305C0</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>108.3</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>10735</t>
+          <t>38175</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NLC/G</t>
+          <t>С/П HC/C/B10</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>233C0</t>
+          <t>253C0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>108.4</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>31578</t>
+          <t>28268</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Н/З туба BX/3</t>
+          <t>P/06/60</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>183C0</t>
+          <t>254C0</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>112</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>35783</t>
+          <t>5158</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Н/З FHC/L1</t>
+          <t>LО 9/60</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>234C0</t>
+          <t>255C0</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>112</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>28109</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Н/КОР PE1/0</t>
+          <t>ОБРЕЗКА НА ?мм</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>289C0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>113</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>36699</t>
+          <t>46291</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Н/КОР PC6/0</t>
+          <t>CR300/S2</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>291C0</t>
+          <t>307C0</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>115</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>36714</t>
+          <t>28556</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Н/КОР PC7/0</t>
+          <t>HC/С/S</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>292C0</t>
+          <t>259C0</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>117</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>36756</t>
+          <t>14817</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Н/КОР PC8/75</t>
+          <t>CU250/B17</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>290C0</t>
+          <t>308C0</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>117</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>24158</t>
+          <t>36224</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Н/КОР DLS 10/36</t>
+          <t>МАР/КОР HC/LV/C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>275C0</t>
+          <t>348C0</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>119</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>15499</t>
+          <t>37682</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Н/КОР DLS 5/45</t>
+          <t>HC333/BC</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>273C0</t>
+          <t>207C0</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>121</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>15505</t>
+          <t>39749</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Н/КОР DLS 5/76</t>
+          <t>APU100</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>272C0</t>
+          <t>309C0</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>129</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>15507</t>
+          <t>26121</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Н/КОР DLS 6/37</t>
+          <t>HCM/8</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>285C0</t>
+          <t>811B0</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>124</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>15515</t>
+          <t>41949</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Н/КОР DLS 7/0</t>
+          <t>LAB/B</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>274C0</t>
+          <t>268C0</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>15517</t>
+          <t>24181</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Н/КОР DLS 7/4</t>
+          <t>DLS 7/43</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>288C0</t>
+          <t>271C0</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>24179</t>
+          <t>6128</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Н/КОР DLS 7/43</t>
+          <t>DLS 5/76</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>271C0</t>
+          <t>272C0</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>15529</t>
+          <t>6109</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Н/КОР DLS 8/76</t>
+          <t>DLS 5/45</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>287C0</t>
+          <t>273C0</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>15532</t>
+          <t>6090</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Н/КОР DLS 9/34</t>
+          <t>DLS 7/0</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>284C0</t>
+          <t>274C0</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>24223</t>
+          <t>24160</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Н/КОР DLS 9/75</t>
+          <t>DLS 10/36</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>286C0</t>
+          <t>275C0</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>38233</t>
+          <t>26921</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Н/КОР NTB10/76</t>
+          <t>Н/З Я ГЛАДКОСТЬ</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>282C0</t>
+          <t>276C0</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>44629</t>
+          <t>28585</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>VED/Set</t>
+          <t>HC/V/S</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1030B0</t>
+          <t>277C0</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>25041</t>
+          <t>44604</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>AH7/0</t>
+          <t>Н/З VED/S250</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>69C0</t>
+          <t>278C0</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>25041</t>
+          <t>44623</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>AH7/0</t>
+          <t>VED/S250</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>70C0</t>
+          <t>278C0</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>10827</t>
+          <t>28559</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>NDL8/1</t>
+          <t>HC/С/SP</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>235C0</t>
+          <t>279C0</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>10823</t>
+          <t>28546</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NDL7/76</t>
+          <t>HC/B/MD</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>236C0</t>
+          <t>281C0</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>10804</t>
+          <t>7822</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>NDL6/7</t>
+          <t>Н/З OX LOOKS</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>237C0</t>
+          <t>15C0</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>27633</t>
+          <t>7822</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>P/S161</t>
+          <t>Н/З OX LOOKS</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>238C0</t>
+          <t>177C0</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>27715</t>
+          <t>38192</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>PE9/16</t>
+          <t>NTB10/76</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>239C0</t>
+          <t>282C0</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>37021</t>
+          <t>35783</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>PС6/00</t>
+          <t>Н/З FHC/L1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>240C0</t>
+          <t>283C0</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>37064</t>
+          <t>28070</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>PС8/76</t>
+          <t>Н/КОР PE10/16</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>241C0</t>
+          <t>340C0</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>37006</t>
+          <t>36548</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>PС4/7</t>
+          <t>Н/КОР PC6/11</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>242C0</t>
+          <t>341C0</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>37001</t>
+          <t>36549</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>PС3/0</t>
+          <t>Н/КОР PC7/16</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>243C0</t>
+          <t>343C0</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>37009</t>
+          <t>36555</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>PС5/00</t>
+          <t>Н/КОР PC9/61</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>244C0</t>
+          <t>342C0</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>37037</t>
+          <t>15338</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>PС7/1</t>
+          <t>Н/КОР NHB 101</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>245C0</t>
+          <t>331C0</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5653</t>
+          <t>15504</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>EN/4</t>
+          <t>Н/КОР DLS 5/75</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>185C0</t>
+          <t>320C0</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>44616</t>
+          <t>15514</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>KIKI/B1</t>
+          <t>Н/КОР DLS 6/76</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>140C0</t>
+          <t>321C0</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>44626</t>
+          <t>15518</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>VED/B1</t>
+          <t>Н/КОР DLS 7/45</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>201C0</t>
+          <t>319C0</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>35931</t>
+          <t>15519</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>AH/SH1000</t>
+          <t>Н/КОР DLS 7/47</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>248C0</t>
+          <t>322C0</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>35931</t>
+          <t>24219</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>AH/SH1000</t>
+          <t>Н/КОР DLS 9/36</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>249C0</t>
+          <t>323C0</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>35317</t>
+          <t>15376</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>HC/LV/C</t>
+          <t>Н/КОР NDL10/0</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>202C0</t>
+          <t>339C0</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>10284</t>
+          <t>15397</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve">DL/P30 </t>
+          <t>Н/КОР NDL4/0</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>856L9</t>
+          <t>338C0</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>106.2</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>10284</t>
+          <t>15421</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve">DL/P30 </t>
+          <t>Н/КОР NDL6/3</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>625A0</t>
+          <t>336C0</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>106.2</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>28544</t>
+          <t>15426</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>HC/B/M3</t>
+          <t>Н/КОР NDL6/44</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>250C0</t>
+          <t>335C0</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>28567</t>
+          <t>15461</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>HC/H/M</t>
+          <t>Н/КОР NDL8/34</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>251C0</t>
+          <t>337C0</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>38180</t>
+          <t>15557</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>С/П HC/LV/S10</t>
+          <t>Н/КОР SE10/76</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>203C0</t>
+          <t>330C0</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>108.1</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>38853</t>
+          <t>30787</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>С/П R/S10</t>
+          <t>Н/КОР VHC6/37</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>252C0</t>
+          <t>326C0</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>108.2</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>30952</t>
+          <t>30801</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>С/П LOVE 6</t>
+          <t>Н/КОР VHC6/71</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>145C0</t>
+          <t>329C0</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>108.3</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>38177</t>
+          <t>30803</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>С/П HC/H/S10</t>
+          <t>Н/КОР VHC7/76</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>305C0</t>
+          <t>328C0</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>108.3</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>38175</t>
+          <t>30819</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>С/П HC/C/B10</t>
+          <t>Н/КОР VHC9/76</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>253C0</t>
+          <t>327C0</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>108.4</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>28267</t>
+          <t>38236</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>P/03/60</t>
+          <t>Н/КОР NTB10/6</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>146C0</t>
+          <t>332C0</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>28268</t>
+          <t>25044</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>P/06/60</t>
+          <t>PB10/16</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>254C0</t>
+          <t>226C0</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>40077</t>
+          <t>25044</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Н/ФЛ APU100</t>
+          <t>PB10/16</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>309C0</t>
+          <t>227C0</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>28566</t>
+          <t>6101</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>HC/H/B</t>
+          <t>DLS 9/34</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>206C0</t>
+          <t>284C0</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>21</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>35319</t>
+          <t>24206</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>HC/LV/HM</t>
+          <t>DLS 9/75</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>258C0</t>
+          <t>286C0</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>21</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>28556</t>
+          <t>6094</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>HC/С/S</t>
+          <t>DLS 6/37</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>259C0</t>
+          <t>285C0</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>21</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>28539</t>
+          <t>13715</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>HC/B/S1</t>
+          <t>DLS 8/76</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>205C0</t>
+          <t>287C0</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>21</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>28541</t>
+          <t>6103</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>HC/B/B</t>
+          <t>DLS 7/4</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>257C0</t>
+          <t>288C0</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>21</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>35315</t>
+          <t>27638</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>HC/LV/S</t>
+          <t>PE1/0</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>256C0</t>
+          <t>289C0</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>37682</t>
+          <t>37063</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>HC333/BC</t>
+          <t>PС8/75</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>207C0</t>
+          <t>290C0</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>24</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2020-03-08 00:00:00</t>
+          <t>2020-03-10 00:00:00</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>26121</t>
+          <t>37020</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>HCM/8</t>
+          <t>PС6/0</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>811B0</t>
+          <t>291C0</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2020-03-10 00:00:00</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>37035</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>PС7/0</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>292C0</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2020-03-10 00:00:00</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>5653</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>EN/4</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>293C0</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>42</t>
         </is>
       </c>
     </row>
